--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_0_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_0_35.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Household Surplus" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,10 +42,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,19 +62,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -89,7 +78,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -454,14 +443,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <cols>
-    <col width="27.6328125" bestFit="1" customWidth="1" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -545,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30444.73951963684</v>
+        <v>1919760.473541844</v>
       </c>
     </row>
     <row r="10">
@@ -555,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30444.73951963684</v>
+        <v>1919760.473541844</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341119783.871407</v>
+        <v>52318301.20520668</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +581,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -4243,7 +4229,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -7891,7 +7877,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -11539,7 +11525,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -15187,7 +15173,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -18835,7 +18821,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -22483,7 +22469,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -26131,7 +26117,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -26145,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11715.63211119407</v>
+        <v>1101954.910291021</v>
       </c>
     </row>
     <row r="3">
@@ -26153,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23431.26422238816</v>
+        <v>2203909.82058204</v>
       </c>
     </row>
     <row r="4">
@@ -26161,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35146.89633358223</v>
+        <v>3305864.730873062</v>
       </c>
     </row>
     <row r="5">
@@ -26169,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48084.40139961797</v>
+        <v>4341612.678209895</v>
       </c>
     </row>
     <row r="6">
@@ -26177,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61021.90646565368</v>
+        <v>5377360.625546728</v>
       </c>
     </row>
     <row r="7">
@@ -26185,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73959.41153168939</v>
+        <v>6413108.572883558</v>
       </c>
     </row>
     <row r="8">
@@ -26193,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86896.9165977251</v>
+        <v>7448856.520220385</v>
       </c>
     </row>
     <row r="9">
@@ -26201,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99834.42166376085</v>
+        <v>8484604.467557212</v>
       </c>
     </row>
     <row r="10">
@@ -26209,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112771.9267297966</v>
+        <v>9520352.414894041</v>
       </c>
     </row>
     <row r="11">
@@ -26217,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124849.821191452</v>
+        <v>10597601.95235693</v>
       </c>
     </row>
     <row r="12">
@@ -26225,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136694.8591978567</v>
+        <v>11699556.86264794</v>
       </c>
     </row>
     <row r="13">
@@ -26233,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>148539.8972042614</v>
+        <v>12801511.77293897</v>
       </c>
     </row>
     <row r="14">
@@ -26241,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>160384.9352106662</v>
+        <v>13903466.68323</v>
       </c>
     </row>
     <row r="15">
@@ -26249,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173334.6794396892</v>
+        <v>14938244.35257922</v>
       </c>
     </row>
     <row r="16">
@@ -26257,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187383.477148953</v>
+        <v>15857407.48862566</v>
       </c>
     </row>
   </sheetData>
@@ -26277,7 +26263,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -26603,7 +26589,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -26773,7 +26759,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -26995,7 +26981,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -27217,7 +27203,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -27439,7 +27425,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -31087,7 +31073,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
@@ -34735,7 +34721,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
